--- a/Generation Prediction DNN/ModelComparisonData.xlsx
+++ b/Generation Prediction DNN/ModelComparisonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\challenge-3\Generation Prediction DNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C4D341-97E8-45CB-99A3-D9BB271CD8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E5F4F-F6DC-4E12-B76A-48DD32552C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>Input_Kernel_initializer</t>
   </si>
@@ -211,13 +211,16 @@
   </si>
   <si>
     <t>0.885417972922111</t>
+  </si>
+  <si>
+    <t>6m55s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +241,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +259,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,20 +276,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,183 +595,191 @@
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="4">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
         <v>100</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="4">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
         <v>200</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
         <v>150</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,96 +826,103 @@
       <c r="P5" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="4">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4">
         <v>130</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
         <v>130</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -939,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -989,7 +1022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1089,93 +1122,97 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="4">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4">
         <v>140</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="4">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4">
         <v>135</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="18" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P18">
